--- a/Assets/ExcelData/Excel/KickBack.xlsx
+++ b/Assets/ExcelData/Excel/KickBack.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\R\ResetProject\Assets\ExcelData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_Djmax\Djmax\Assets\ExcelData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,6 +21,34 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KickBack.mp3</t>
+  </si>
+  <si>
+    <t>BPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -64,9 +92,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -348,73 +379,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="A1:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -431,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -448,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -465,12 +481,12 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -526,7 +542,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -535,12 +551,12 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -563,12 +579,12 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -591,12 +607,12 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -605,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -619,12 +635,12 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -633,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -661,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -680,16 +696,16 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -700,9 +716,65 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>1</v>
       </c>
     </row>
